--- a/src/cloud/tests/iExpense/iExpense_Argentina/GeneratingPayablesITC_Test.xlsx
+++ b/src/cloud/tests/iExpense/iExpense_Argentina/GeneratingPayablesITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveD\SVN\InternalMigration\SeleniumFramework_Cloud_ITC\src\cloud\tests\iExpense_Argentina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\iExpense\iExpense_Argentina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983906D7-0105-4164-AD41-71437C16DD14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B420CE5-4D5C-4F73-91EE-5B9F6BA23D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Execute</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>IT Convergence Argentina</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CommitCycle</t>
+  </si>
+  <si>
+    <t>DebugSwitch</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
   </si>
 </sst>
 </file>
@@ -151,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +201,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,12 +535,12 @@
     <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0.81640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="3"/>
+    <col min="9" max="17" width="27.81640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="0.81640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,11 +552,19 @@
       <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -545,8 +580,32 @@
       <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -563,13 +622,40 @@
       <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
